--- a/Test.xlsx
+++ b/Test.xlsx
@@ -16,6 +16,20 @@
     </ext>
   </extLst>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+  <si>
+    <t>Region</t>
+  </si>
+  <si>
+    <t>Purchase</t>
+  </si>
+  <si>
+    <t>Quarter</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -383,12 +397,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:C1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">

--- a/Test.xlsx
+++ b/Test.xlsx
@@ -16,20 +16,6 @@
     </ext>
   </extLst>
 </workbook>
-</file>
-
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
-  <si>
-    <t>Region</t>
-  </si>
-  <si>
-    <t>Purchase</t>
-  </si>
-  <si>
-    <t>Quarter</t>
-  </si>
-</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -397,26 +383,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C1"/>
+  <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
-  <sheetData>
-    <row r="1" spans="1:3">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-  </sheetData>
+  <sheetData/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
